--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学生姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,22 @@
   </si>
   <si>
     <t>张争光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuweidavid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余家骏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩祥永</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,6 +463,9 @@
       <c r="B2">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -463,6 +482,9 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -471,6 +493,9 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -479,6 +504,9 @@
       <c r="B6" s="1">
         <v>5.5</v>
       </c>
+      <c r="C6" s="1">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -495,6 +523,9 @@
       <c r="B8">
         <v>6.5</v>
       </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -503,6 +534,9 @@
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -510,6 +544,44 @@
       </c>
       <c r="B10" s="1">
         <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>学生姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>韩祥永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3次作业(2018-12-23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,9 +447,10 @@
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +460,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -467,15 +475,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -485,8 +496,11 @@
       <c r="C4">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,8 +510,11 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -507,8 +524,11 @@
       <c r="C6" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -516,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -527,7 +547,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -537,8 +557,11 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -548,8 +571,11 @@
       <c r="C10" s="1">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -560,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -568,7 +594,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -576,7 +602,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>

--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -82,7 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第3次作业(2018-12-23)</t>
+    <t>第3次作业(2019-01-19)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
